--- a/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>-32,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>152,7%</t>
+          <t>-54,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,82</t>
+          <t>-21,93; 9,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 9,44</t>
+          <t>-37,1; 8,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,99</t>
+          <t>0,0; 28,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 6,73</t>
+          <t>0,0; 43,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-70,25; 82,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1152,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 181,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 530,54</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>152,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-43,15%</t>
+          <t>73,0%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 7,57</t>
+          <t>-7,48; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 4,47</t>
+          <t>0,05; 9,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 7,12</t>
+          <t>-4,49; 5,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,77</t>
+          <t>-1,33; 6,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 401,07</t>
+          <t>-70,25; 82,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 350,18</t>
+          <t>-5,89; 1152,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 363,19</t>
+          <t>-59,88; 181,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 288,85</t>
+          <t>-44,87; 530,54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,24%</t>
+          <t>-59,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-54,72%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>27,39%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 9,55</t>
+          <t>-12,45; 0,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 8,3</t>
+          <t>-3,97; 9,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,75</t>
+          <t>-4,52; 5,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,45</t>
+          <t>-3,72; 7,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-91,31; 30,24</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-42,33; 240,95</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,61; 365,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-59,16%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>-13,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>-43,15%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 0,35</t>
+          <t>-2,98; 7,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 9,98</t>
+          <t>-5,77; 4,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,44</t>
+          <t>-2,96; 7,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 7,09</t>
+          <t>-5,24; 1,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-91,31; 30,24</t>
+          <t>-48,24; 401,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 240,95</t>
+          <t>-88,48; 350,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,43; 363,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 365,14</t>
+          <t>-100,0; 288,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 9,55</t>
+          <t>-22,59; 9,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 8,3</t>
+          <t>-37,3; 7,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,75</t>
+          <t>0,0; 30,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 7,72</t>
+          <t>-6,75; 7,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 2,34</t>
+          <t>-13,68; 1,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 6,53</t>
+          <t>-3,36; 7,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 9,43</t>
+          <t>-0,53; 10,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,98; 234,0</t>
+          <t>-73,32; 233,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,27; 71,08</t>
+          <t>-90,45; 30,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,88; 1357,21</t>
+          <t>-51,98; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,82</t>
+          <t>-7,07; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 9,44</t>
+          <t>0,33; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,99</t>
+          <t>-4,53; 6,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 6,73</t>
+          <t>-1,91; 6,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,25; 82,01</t>
+          <t>-68,56; 75,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1152,7</t>
+          <t>-9,45; 753,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 181,71</t>
+          <t>-55,17; 239,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 530,54</t>
+          <t>-57,33; 582,04</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 0,35</t>
+          <t>-11,64; 1,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 9,98</t>
+          <t>-3,77; 9,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,44</t>
+          <t>-4,4; 4,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 7,09</t>
+          <t>-4,15; 6,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,31; 30,24</t>
+          <t>-88,84; 45,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 240,95</t>
+          <t>-45,71; 271,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,77; 486,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 365,14</t>
+          <t>-70,78; 323,98</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 7,57</t>
+          <t>-4,19; 7,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 4,47</t>
+          <t>-5,72; 4,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 7,12</t>
+          <t>-3,24; 6,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,77</t>
+          <t>-5,51; 1,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 401,07</t>
+          <t>-66,38; 364,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 350,18</t>
+          <t>-87,56; 349,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 363,19</t>
+          <t>-59,28; 301,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 288,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,87</t>
+          <t>-4,43; 1,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 3,84</t>
+          <t>-2,21; 3,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,03</t>
+          <t>-0,86; 3,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,93</t>
+          <t>-0,89; 3,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 32,59</t>
+          <t>-49,95; 34,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 83,87</t>
+          <t>-32,12; 88,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 159,24</t>
+          <t>-21,29; 148,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 184,94</t>
+          <t>-21,3; 163,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 9,44</t>
+          <t>-22,46; 9,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 7,49</t>
+          <t>-35,54; 12,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,0</t>
+          <t>0,0; 36,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,45</t>
+          <t>0,0; 36,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 7,83</t>
+          <t>-7,22; 7,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 1,05</t>
+          <t>-12,9; 1,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 7,52</t>
+          <t>-3,49; 7,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 10,18</t>
+          <t>-1,29; 9,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,32; 233,82</t>
+          <t>-70,08; 207,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,45; 30,32</t>
+          <t>-89,34; 50,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,98; —</t>
+          <t>-68,7; 1537,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 3,56</t>
+          <t>-6,46; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 9,59</t>
+          <t>0,04; 9,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 6,61</t>
+          <t>-4,31; 6,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,84</t>
+          <t>-1,34; 7,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,56; 75,43</t>
+          <t>-61,16; 105,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 753,69</t>
+          <t>-20,46; 822,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,17; 239,96</t>
+          <t>-53,72; 216,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 582,04</t>
+          <t>-45,66; 557,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 1,22</t>
+          <t>-11,38; 0,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 9,98</t>
+          <t>-3,35; 10,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,77</t>
+          <t>-4,15; 4,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 6,22</t>
+          <t>-3,83; 6,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,84; 45,48</t>
+          <t>-89,76; 38,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 271,06</t>
+          <t>-42,1; 301,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,77; 486,65</t>
+          <t>-80,79; 518,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,78; 323,98</t>
+          <t>-61,41; 350,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 7,62</t>
+          <t>-3,51; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 4,45</t>
+          <t>-5,5; 3,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,71</t>
+          <t>-3,05; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 1,76</t>
+          <t>-5,47; 1,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 364,82</t>
+          <t>-62,26; 346,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-87,56; 349,64</t>
+          <t>-85,27; 262,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-59,28; 301,97</t>
+          <t>-55,11; 347,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 164,02</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,89</t>
+          <t>-4,34; 1,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,69</t>
+          <t>-2,16; 3,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,94</t>
+          <t>-0,95; 3,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,74</t>
+          <t>-0,62; 3,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,95; 34,26</t>
+          <t>-49,48; 34,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 88,49</t>
+          <t>-31,9; 95,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 148,52</t>
+          <t>-21,36; 149,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 163,44</t>
+          <t>-19,15; 168,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C04-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-32,24%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-54,72%</t>
+          <t>-55,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>133,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>219,82%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 9,51</t>
+          <t>-6,85; 5,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,54; 12,07</t>
+          <t>-14,43; 1,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,12</t>
+          <t>-1,82; 8,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,57</t>
+          <t>-0,12; 10,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,12; 164,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,57; 35,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>-20,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-55,46%</t>
+          <t>152,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>57,57%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159,33%</t>
+          <t>94,46%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 7,22</t>
+          <t>-7,48; 3,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 1,29</t>
+          <t>0,05; 9,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 7,59</t>
+          <t>-4,49; 5,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,99</t>
+          <t>-1,01; 8,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,08; 207,76</t>
+          <t>-70,25; 82,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,34; 50,64</t>
+          <t>-5,89; 1152,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,88; 181,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,7; 1537,34</t>
+          <t>-42,61; 662,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>-59,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>152,7%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 4,59</t>
+          <t>-12,45; 0,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 9,53</t>
+          <t>-3,97; 9,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 6,04</t>
+          <t>-4,52; 5,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 7,23</t>
+          <t>-3,94; 6,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,16; 105,44</t>
+          <t>-91,31; 30,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 822,99</t>
+          <t>-42,33; 240,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 216,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,66; 557,69</t>
+          <t>-63,95; 341,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,34</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-59,16%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>-13,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>-45,28%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 0,66</t>
+          <t>-2,98; 7,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 10,46</t>
+          <t>-5,77; 4,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 4,86</t>
+          <t>-2,96; 7,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,59</t>
+          <t>-5,66; 1,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,76; 38,53</t>
+          <t>-48,24; 401,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 301,04</t>
+          <t>-88,48; 350,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,79; 518,11</t>
+          <t>-57,43; 363,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,41; 350,54</t>
+          <t>-100,0; 267,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>-17,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40,73%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-43,15%</t>
+          <t>45,66%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 7,49</t>
+          <t>-4,16; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 3,92</t>
+          <t>-2,37; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,53</t>
+          <t>-1,23; 4,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,72</t>
+          <t>-0,62; 4,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-62,26; 346,97</t>
+          <t>-47,95; 32,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-85,27; 262,68</t>
+          <t>-33,33; 83,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 347,13</t>
+          <t>-25,25; 159,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 164,02</t>
+          <t>-18,39; 191,18</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-17,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>34,77%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>43,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 1,81</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 3,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 3,98</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,62; 3,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-49,48; 34,22</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-31,9; 95,49</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-21,36; 149,47</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-19,15; 168,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
